--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H2">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>978.8268330157946</v>
+        <v>103.322757625926</v>
       </c>
       <c r="R2">
-        <v>8809.441497142152</v>
+        <v>929.904818633334</v>
       </c>
       <c r="S2">
-        <v>0.006013340010153695</v>
+        <v>0.001498028431925638</v>
       </c>
       <c r="T2">
-        <v>0.006013340010153695</v>
+        <v>0.001498028431925638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H3">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>479.2163257067493</v>
+        <v>492.0974667797569</v>
       </c>
       <c r="R3">
-        <v>4312.946931360743</v>
+        <v>4428.877201017813</v>
       </c>
       <c r="S3">
-        <v>0.002944025038640048</v>
+        <v>0.007134691460554708</v>
       </c>
       <c r="T3">
-        <v>0.002944025038640048</v>
+        <v>0.007134691460554709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H4">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>236.211037694496</v>
+        <v>234.118346852777</v>
       </c>
       <c r="R4">
-        <v>2125.899339250464</v>
+        <v>2107.065121674993</v>
       </c>
       <c r="S4">
-        <v>0.001451142567712296</v>
+        <v>0.003394372624960657</v>
       </c>
       <c r="T4">
-        <v>0.001451142567712297</v>
+        <v>0.003394372624960658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H5">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I5">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J5">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>700.7365734557599</v>
+        <v>538.29229972567</v>
       </c>
       <c r="R5">
-        <v>6306.629161101839</v>
+        <v>4844.63069753103</v>
       </c>
       <c r="S5">
-        <v>0.004304915978607556</v>
+        <v>0.007804448779765754</v>
       </c>
       <c r="T5">
-        <v>0.004304915978607556</v>
+        <v>0.007804448779765755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>43279.34417046441</v>
+        <v>4448.88591512307</v>
       </c>
       <c r="R6">
-        <v>389514.0975341797</v>
+        <v>40039.97323610763</v>
       </c>
       <c r="S6">
-        <v>0.2658829970073636</v>
+        <v>0.0645023201507698</v>
       </c>
       <c r="T6">
-        <v>0.2658829970073636</v>
+        <v>0.06450232015076979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>543.064652</v>
       </c>
       <c r="I7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
         <v>21188.80234256216</v>
@@ -883,10 +883,10 @@
         <v>190699.2210830595</v>
       </c>
       <c r="S7">
-        <v>0.1301716183047379</v>
+        <v>0.3072065542668603</v>
       </c>
       <c r="T7">
-        <v>0.1301716183047379</v>
+        <v>0.3072065542668603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>543.064652</v>
       </c>
       <c r="I8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>10444.19549241931</v>
+        <v>10080.70089995222</v>
       </c>
       <c r="R8">
-        <v>93997.75943177381</v>
+        <v>90726.30809956997</v>
       </c>
       <c r="S8">
-        <v>0.06416303324555314</v>
+        <v>0.1461553766938714</v>
       </c>
       <c r="T8">
-        <v>0.06416303324555314</v>
+        <v>0.1461553766938714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>543.064652</v>
       </c>
       <c r="I9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>30983.43681689238</v>
+        <v>23177.86599481768</v>
       </c>
       <c r="R9">
-        <v>278850.9313520314</v>
+        <v>208600.7939533591</v>
       </c>
       <c r="S9">
-        <v>0.1903441282755288</v>
+        <v>0.3360450596692842</v>
       </c>
       <c r="T9">
-        <v>0.1903441282755288</v>
+        <v>0.3360450596692843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H10">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>7192.240720829974</v>
+        <v>640.409626263838</v>
       </c>
       <c r="R10">
-        <v>64730.16648746976</v>
+        <v>5763.686636374543</v>
       </c>
       <c r="S10">
-        <v>0.04418492365597588</v>
+        <v>0.009285000229043234</v>
       </c>
       <c r="T10">
-        <v>0.04418492365597588</v>
+        <v>0.009285000229043232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H11">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>3521.194000388612</v>
+        <v>3050.092371002775</v>
       </c>
       <c r="R11">
-        <v>31690.74600349751</v>
+        <v>27450.83133902497</v>
       </c>
       <c r="S11">
-        <v>0.0216321580609022</v>
+        <v>0.04422186550908647</v>
       </c>
       <c r="T11">
-        <v>0.0216321580609022</v>
+        <v>0.04422186550908647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H12">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>1735.635545238924</v>
+        <v>1451.099897588035</v>
       </c>
       <c r="R12">
-        <v>15620.71990715032</v>
+        <v>13059.89907829231</v>
       </c>
       <c r="S12">
-        <v>0.01066273043932964</v>
+        <v>0.02103882004409264</v>
       </c>
       <c r="T12">
-        <v>0.01066273043932964</v>
+        <v>0.02103882004409264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H13">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>5148.884305363189</v>
+        <v>3336.414730006377</v>
       </c>
       <c r="R13">
-        <v>46339.9587482687</v>
+        <v>30027.73257005739</v>
       </c>
       <c r="S13">
-        <v>0.0316317360300576</v>
+        <v>0.04837311973747527</v>
       </c>
       <c r="T13">
-        <v>0.0316317360300576</v>
+        <v>0.04837311973747527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H14">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I14">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J14">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>15075.69803445922</v>
+        <v>17.40325591688067</v>
       </c>
       <c r="R14">
-        <v>135681.282310133</v>
+        <v>156.629303251926</v>
       </c>
       <c r="S14">
-        <v>0.09261627809313049</v>
+        <v>0.0002523216837277254</v>
       </c>
       <c r="T14">
-        <v>0.0926162780931305</v>
+        <v>0.0002523216837277254</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H15">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I15">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J15">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>7380.795433732691</v>
+        <v>82.88685229852855</v>
       </c>
       <c r="R15">
-        <v>66427.15890359423</v>
+        <v>745.981670686757</v>
       </c>
       <c r="S15">
-        <v>0.04534329361576494</v>
+        <v>0.001201737780030567</v>
       </c>
       <c r="T15">
-        <v>0.04534329361576494</v>
+        <v>0.001201737780030568</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H16">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I16">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J16">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>3638.075864468075</v>
+        <v>39.43392141997522</v>
       </c>
       <c r="R16">
-        <v>32742.68278021268</v>
+        <v>354.905292779777</v>
       </c>
       <c r="S16">
-        <v>0.02235021192500079</v>
+        <v>0.0005717340189788114</v>
       </c>
       <c r="T16">
-        <v>0.02235021192500079</v>
+        <v>0.0005717340189788115</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H17">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I17">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J17">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>10792.60664582764</v>
+        <v>90.66771798840777</v>
       </c>
       <c r="R17">
-        <v>97133.45981244875</v>
+        <v>816.0094618956699</v>
       </c>
       <c r="S17">
-        <v>0.06630346775154128</v>
+        <v>0.001314548919572869</v>
       </c>
       <c r="T17">
-        <v>0.06630346775154128</v>
+        <v>0.001314548919572869</v>
       </c>
     </row>
   </sheetData>
